--- a/V1/Dataset/OR60F.xlsx
+++ b/V1/Dataset/OR60F.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pylya\Desktop\PhD\PhD\github\CSPLib\V1\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0FA2B-1C26-49D2-9BBE-2B274FC7818E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994DF3E2-84B6-40AF-8EE8-985969652958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="22" r:id="rId1"/>
@@ -1737,7 +1737,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="1060">
   <si>
     <t>Metaheuristics</t>
   </si>
@@ -3511,9 +3511,6 @@
     <t>Person12</t>
   </si>
   <si>
-    <t>Person11, Person13</t>
-  </si>
-  <si>
     <t>Person14</t>
   </si>
   <si>
@@ -3610,9 +3607,6 @@
     <t>Person47</t>
   </si>
   <si>
-    <t>Person42, Person48</t>
-  </si>
-  <si>
     <t>Person49</t>
   </si>
   <si>
@@ -3688,9 +3682,6 @@
     <t>Person73</t>
   </si>
   <si>
-    <t>Person73, Person74</t>
-  </si>
-  <si>
     <t>Person75</t>
   </si>
   <si>
@@ -3718,9 +3709,6 @@
     <t>Person83</t>
   </si>
   <si>
-    <t>Person14, Person84</t>
-  </si>
-  <si>
     <t>Person85</t>
   </si>
   <si>
@@ -3751,9 +3739,6 @@
     <t>Person94</t>
   </si>
   <si>
-    <t>Person83, Person95</t>
-  </si>
-  <si>
     <t>Person96</t>
   </si>
   <si>
@@ -3769,9 +3754,6 @@
     <t>Person106</t>
   </si>
   <si>
-    <t>Person8, Person107</t>
-  </si>
-  <si>
     <t>Person108</t>
   </si>
   <si>
@@ -3787,15 +3769,9 @@
     <t>Person112</t>
   </si>
   <si>
-    <t>Person110, Person113</t>
-  </si>
-  <si>
     <t>Person114</t>
   </si>
   <si>
-    <t>Person17, Person115</t>
-  </si>
-  <si>
     <t>Person116</t>
   </si>
   <si>
@@ -3805,27 +3781,15 @@
     <t>Person118</t>
   </si>
   <si>
-    <t>Person110, Person119</t>
-  </si>
-  <si>
     <t>Person120</t>
   </si>
   <si>
-    <t>Person110, Person121</t>
-  </si>
-  <si>
-    <t>Person110, Person122</t>
-  </si>
-  <si>
     <t>Person123</t>
   </si>
   <si>
     <t>Person124</t>
   </si>
   <si>
-    <t>Person110, Person125</t>
-  </si>
-  <si>
     <t>Person126</t>
   </si>
   <si>
@@ -3844,15 +3808,9 @@
     <t>Person133</t>
   </si>
   <si>
-    <t>Person133, Person134</t>
-  </si>
-  <si>
     <t>Person135</t>
   </si>
   <si>
-    <t>Person59, Person136</t>
-  </si>
-  <si>
     <t>Person137</t>
   </si>
   <si>
@@ -3877,9 +3835,6 @@
     <t>Person144</t>
   </si>
   <si>
-    <t>Person45, Person145</t>
-  </si>
-  <si>
     <t>Person146</t>
   </si>
   <si>
@@ -3889,12 +3844,6 @@
     <t>Person148</t>
   </si>
   <si>
-    <t>Person62, Person149</t>
-  </si>
-  <si>
-    <t>Person146, Person150</t>
-  </si>
-  <si>
     <t>Person151</t>
   </si>
   <si>
@@ -3928,9 +3877,6 @@
     <t>Person166</t>
   </si>
   <si>
-    <t>Person110, Person167</t>
-  </si>
-  <si>
     <t>Person168</t>
   </si>
   <si>
@@ -3955,9 +3901,6 @@
     <t>Person175</t>
   </si>
   <si>
-    <t>Person2, Person176</t>
-  </si>
-  <si>
     <t>Person177</t>
   </si>
   <si>
@@ -4012,27 +3955,15 @@
     <t>Person194</t>
   </si>
   <si>
-    <t>Person62, Person195</t>
-  </si>
-  <si>
     <t>Person196</t>
   </si>
   <si>
     <t>Person197</t>
   </si>
   <si>
-    <t>Person177, Person198</t>
-  </si>
-  <si>
     <t>Person199</t>
   </si>
   <si>
-    <t>Person199, Person200</t>
-  </si>
-  <si>
-    <t>Person187, Person201</t>
-  </si>
-  <si>
     <t>Person202</t>
   </si>
   <si>
@@ -4087,9 +4018,6 @@
     <t>Person219</t>
   </si>
   <si>
-    <t>Person219, Person220</t>
-  </si>
-  <si>
     <t>Person221</t>
   </si>
   <si>
@@ -4144,9 +4072,6 @@
     <t>Person238</t>
   </si>
   <si>
-    <t>Person133, Person239</t>
-  </si>
-  <si>
     <t>Person240</t>
   </si>
   <si>
@@ -4156,9 +4081,6 @@
     <t>Person242</t>
   </si>
   <si>
-    <t>Person242, Person243</t>
-  </si>
-  <si>
     <t>Person244</t>
   </si>
   <si>
@@ -4183,9 +4105,6 @@
     <t>Person251</t>
   </si>
   <si>
-    <t>Person253, Person252</t>
-  </si>
-  <si>
     <t>Person253</t>
   </si>
   <si>
@@ -4204,9 +4123,6 @@
     <t>Person258</t>
   </si>
   <si>
-    <t>Person58, Person259</t>
-  </si>
-  <si>
     <t>Person260</t>
   </si>
   <si>
@@ -4216,15 +4132,9 @@
     <t>Person298</t>
   </si>
   <si>
-    <t>Person193, Person299</t>
-  </si>
-  <si>
     <t>Person300</t>
   </si>
   <si>
-    <t>Person298, Person301</t>
-  </si>
-  <si>
     <t>Person302</t>
   </si>
   <si>
@@ -4264,9 +4174,6 @@
     <t>Person314</t>
   </si>
   <si>
-    <t>Person307, Person315</t>
-  </si>
-  <si>
     <t>Person316</t>
   </si>
   <si>
@@ -4276,15 +4183,9 @@
     <t>Person318</t>
   </si>
   <si>
-    <t>Person110, Person319</t>
-  </si>
-  <si>
     <t>Person320</t>
   </si>
   <si>
-    <t>Person298, Person321</t>
-  </si>
-  <si>
     <t>Person322</t>
   </si>
   <si>
@@ -4294,24 +4195,12 @@
     <t>Person324</t>
   </si>
   <si>
-    <t>Person110, Person325</t>
-  </si>
-  <si>
     <t>Person326</t>
   </si>
   <si>
-    <t>Person44, Person327</t>
-  </si>
-  <si>
-    <t>Person219, Person328</t>
-  </si>
-  <si>
     <t>Person329</t>
   </si>
   <si>
-    <t>Person8, Person129</t>
-  </si>
-  <si>
     <t>Tue1</t>
   </si>
   <si>
@@ -4391,6 +4280,1065 @@
   </si>
   <si>
     <t>BHBH</t>
+  </si>
+  <si>
+    <t>Person13</t>
+  </si>
+  <si>
+    <t>Person48</t>
+  </si>
+  <si>
+    <t>Person74</t>
+  </si>
+  <si>
+    <t>Person84</t>
+  </si>
+  <si>
+    <t>Person95</t>
+  </si>
+  <si>
+    <t>Person107</t>
+  </si>
+  <si>
+    <t>Person113</t>
+  </si>
+  <si>
+    <t>Person115</t>
+  </si>
+  <si>
+    <t>Person119</t>
+  </si>
+  <si>
+    <t>Person121</t>
+  </si>
+  <si>
+    <t>Person122</t>
+  </si>
+  <si>
+    <t>Person125</t>
+  </si>
+  <si>
+    <t>Person129</t>
+  </si>
+  <si>
+    <t>Person134</t>
+  </si>
+  <si>
+    <t>Person136</t>
+  </si>
+  <si>
+    <t>Person145</t>
+  </si>
+  <si>
+    <t>Person149</t>
+  </si>
+  <si>
+    <t>Person150</t>
+  </si>
+  <si>
+    <t>Person167</t>
+  </si>
+  <si>
+    <t>Person176</t>
+  </si>
+  <si>
+    <t>Person195</t>
+  </si>
+  <si>
+    <t>Person198</t>
+  </si>
+  <si>
+    <t>Person200</t>
+  </si>
+  <si>
+    <t>Person201</t>
+  </si>
+  <si>
+    <t>Person220</t>
+  </si>
+  <si>
+    <t>Person239</t>
+  </si>
+  <si>
+    <t>Person243</t>
+  </si>
+  <si>
+    <t>Person252</t>
+  </si>
+  <si>
+    <t>Person259</t>
+  </si>
+  <si>
+    <t>Person299</t>
+  </si>
+  <si>
+    <t>Person301</t>
+  </si>
+  <si>
+    <t>Person315</t>
+  </si>
+  <si>
+    <t>Person319</t>
+  </si>
+  <si>
+    <t>Person321</t>
+  </si>
+  <si>
+    <t>Person325</t>
+  </si>
+  <si>
+    <t>Person327</t>
+  </si>
+  <si>
+    <t>Person328</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P23</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P26</t>
+  </si>
+  <si>
+    <t>P27</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P29</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P31</t>
+  </si>
+  <si>
+    <t>P32</t>
+  </si>
+  <si>
+    <t>P33</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P36</t>
+  </si>
+  <si>
+    <t>P37</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P40</t>
+  </si>
+  <si>
+    <t>P41</t>
+  </si>
+  <si>
+    <t>P42</t>
+  </si>
+  <si>
+    <t>P43</t>
+  </si>
+  <si>
+    <t>P44</t>
+  </si>
+  <si>
+    <t>P45</t>
+  </si>
+  <si>
+    <t>P46</t>
+  </si>
+  <si>
+    <t>P47</t>
+  </si>
+  <si>
+    <t>P48</t>
+  </si>
+  <si>
+    <t>P49</t>
+  </si>
+  <si>
+    <t>P50</t>
+  </si>
+  <si>
+    <t>P51</t>
+  </si>
+  <si>
+    <t>P52</t>
+  </si>
+  <si>
+    <t>P53</t>
+  </si>
+  <si>
+    <t>P54</t>
+  </si>
+  <si>
+    <t>P55</t>
+  </si>
+  <si>
+    <t>P56</t>
+  </si>
+  <si>
+    <t>P57</t>
+  </si>
+  <si>
+    <t>P58</t>
+  </si>
+  <si>
+    <t>P59</t>
+  </si>
+  <si>
+    <t>P60</t>
+  </si>
+  <si>
+    <t>P61</t>
+  </si>
+  <si>
+    <t>P62</t>
+  </si>
+  <si>
+    <t>P63</t>
+  </si>
+  <si>
+    <t>P64</t>
+  </si>
+  <si>
+    <t>P65</t>
+  </si>
+  <si>
+    <t>P66</t>
+  </si>
+  <si>
+    <t>P67</t>
+  </si>
+  <si>
+    <t>P68</t>
+  </si>
+  <si>
+    <t>P69</t>
+  </si>
+  <si>
+    <t>P70</t>
+  </si>
+  <si>
+    <t>P71</t>
+  </si>
+  <si>
+    <t>P72</t>
+  </si>
+  <si>
+    <t>P73</t>
+  </si>
+  <si>
+    <t>P74</t>
+  </si>
+  <si>
+    <t>P75</t>
+  </si>
+  <si>
+    <t>P76</t>
+  </si>
+  <si>
+    <t>P77</t>
+  </si>
+  <si>
+    <t>P78</t>
+  </si>
+  <si>
+    <t>P79</t>
+  </si>
+  <si>
+    <t>P80</t>
+  </si>
+  <si>
+    <t>P81</t>
+  </si>
+  <si>
+    <t>P82</t>
+  </si>
+  <si>
+    <t>P83</t>
+  </si>
+  <si>
+    <t>P84</t>
+  </si>
+  <si>
+    <t>P85</t>
+  </si>
+  <si>
+    <t>P86</t>
+  </si>
+  <si>
+    <t>P87</t>
+  </si>
+  <si>
+    <t>P88</t>
+  </si>
+  <si>
+    <t>P89</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>P91</t>
+  </si>
+  <si>
+    <t>P92</t>
+  </si>
+  <si>
+    <t>P93</t>
+  </si>
+  <si>
+    <t>P94</t>
+  </si>
+  <si>
+    <t>P95</t>
+  </si>
+  <si>
+    <t>P96</t>
+  </si>
+  <si>
+    <t>P97</t>
+  </si>
+  <si>
+    <t>P98</t>
+  </si>
+  <si>
+    <t>P99</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>P127</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>P129</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>P132</t>
+  </si>
+  <si>
+    <t>P133</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>P135</t>
+  </si>
+  <si>
+    <t>P136</t>
+  </si>
+  <si>
+    <t>P137</t>
+  </si>
+  <si>
+    <t>P138</t>
+  </si>
+  <si>
+    <t>P139</t>
+  </si>
+  <si>
+    <t>P140</t>
+  </si>
+  <si>
+    <t>P141</t>
+  </si>
+  <si>
+    <t>P142</t>
+  </si>
+  <si>
+    <t>P143</t>
+  </si>
+  <si>
+    <t>P144</t>
+  </si>
+  <si>
+    <t>P145</t>
+  </si>
+  <si>
+    <t>P146</t>
+  </si>
+  <si>
+    <t>P147</t>
+  </si>
+  <si>
+    <t>P148</t>
+  </si>
+  <si>
+    <t>P149</t>
+  </si>
+  <si>
+    <t>P150</t>
+  </si>
+  <si>
+    <t>P151</t>
+  </si>
+  <si>
+    <t>P152</t>
+  </si>
+  <si>
+    <t>P153</t>
+  </si>
+  <si>
+    <t>P154</t>
+  </si>
+  <si>
+    <t>P155</t>
+  </si>
+  <si>
+    <t>P156</t>
+  </si>
+  <si>
+    <t>P157</t>
+  </si>
+  <si>
+    <t>P158</t>
+  </si>
+  <si>
+    <t>P159</t>
+  </si>
+  <si>
+    <t>P160</t>
+  </si>
+  <si>
+    <t>P161</t>
+  </si>
+  <si>
+    <t>P162</t>
+  </si>
+  <si>
+    <t>P163</t>
+  </si>
+  <si>
+    <t>P164</t>
+  </si>
+  <si>
+    <t>P165</t>
+  </si>
+  <si>
+    <t>P166</t>
+  </si>
+  <si>
+    <t>P167</t>
+  </si>
+  <si>
+    <t>P168</t>
+  </si>
+  <si>
+    <t>P169</t>
+  </si>
+  <si>
+    <t>P170</t>
+  </si>
+  <si>
+    <t>P171</t>
+  </si>
+  <si>
+    <t>P172</t>
+  </si>
+  <si>
+    <t>P173</t>
+  </si>
+  <si>
+    <t>P174</t>
+  </si>
+  <si>
+    <t>P175</t>
+  </si>
+  <si>
+    <t>P176</t>
+  </si>
+  <si>
+    <t>P177</t>
+  </si>
+  <si>
+    <t>P178</t>
+  </si>
+  <si>
+    <t>P179</t>
+  </si>
+  <si>
+    <t>P180</t>
+  </si>
+  <si>
+    <t>P181</t>
+  </si>
+  <si>
+    <t>P182</t>
+  </si>
+  <si>
+    <t>P183</t>
+  </si>
+  <si>
+    <t>P184</t>
+  </si>
+  <si>
+    <t>P185</t>
+  </si>
+  <si>
+    <t>P186</t>
+  </si>
+  <si>
+    <t>P187</t>
+  </si>
+  <si>
+    <t>P188</t>
+  </si>
+  <si>
+    <t>P189</t>
+  </si>
+  <si>
+    <t>P190</t>
+  </si>
+  <si>
+    <t>P191</t>
+  </si>
+  <si>
+    <t>P192</t>
+  </si>
+  <si>
+    <t>P193</t>
+  </si>
+  <si>
+    <t>P194</t>
+  </si>
+  <si>
+    <t>P195</t>
+  </si>
+  <si>
+    <t>P196</t>
+  </si>
+  <si>
+    <t>P197</t>
+  </si>
+  <si>
+    <t>P198</t>
+  </si>
+  <si>
+    <t>P199</t>
+  </si>
+  <si>
+    <t>P200</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P204</t>
+  </si>
+  <si>
+    <t>P205</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P207</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P209</t>
+  </si>
+  <si>
+    <t>P210</t>
+  </si>
+  <si>
+    <t>P211</t>
+  </si>
+  <si>
+    <t>P212</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>P214</t>
+  </si>
+  <si>
+    <t>P215</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>P217</t>
+  </si>
+  <si>
+    <t>P218</t>
+  </si>
+  <si>
+    <t>P219</t>
+  </si>
+  <si>
+    <t>P220</t>
+  </si>
+  <si>
+    <t>P221</t>
+  </si>
+  <si>
+    <t>P222</t>
+  </si>
+  <si>
+    <t>P223</t>
+  </si>
+  <si>
+    <t>P224</t>
+  </si>
+  <si>
+    <t>P225</t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>P227</t>
+  </si>
+  <si>
+    <t>P228</t>
+  </si>
+  <si>
+    <t>P229</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P232</t>
+  </si>
+  <si>
+    <t>P233</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>P235</t>
+  </si>
+  <si>
+    <t>P236</t>
+  </si>
+  <si>
+    <t>P237</t>
+  </si>
+  <si>
+    <t>P238</t>
+  </si>
+  <si>
+    <t>P239</t>
+  </si>
+  <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>P241</t>
+  </si>
+  <si>
+    <t>P242</t>
+  </si>
+  <si>
+    <t>P243</t>
+  </si>
+  <si>
+    <t>P244</t>
+  </si>
+  <si>
+    <t>P245</t>
+  </si>
+  <si>
+    <t>P246</t>
+  </si>
+  <si>
+    <t>P247</t>
+  </si>
+  <si>
+    <t>P248</t>
+  </si>
+  <si>
+    <t>P249</t>
+  </si>
+  <si>
+    <t>P250</t>
+  </si>
+  <si>
+    <t>P251</t>
+  </si>
+  <si>
+    <t>P252</t>
+  </si>
+  <si>
+    <t>P253</t>
+  </si>
+  <si>
+    <t>P254</t>
+  </si>
+  <si>
+    <t>P255</t>
+  </si>
+  <si>
+    <t>P256</t>
+  </si>
+  <si>
+    <t>P257</t>
+  </si>
+  <si>
+    <t>P258</t>
+  </si>
+  <si>
+    <t>P259</t>
+  </si>
+  <si>
+    <t>P260</t>
+  </si>
+  <si>
+    <t>P261</t>
+  </si>
+  <si>
+    <t>P262</t>
+  </si>
+  <si>
+    <t>P263</t>
+  </si>
+  <si>
+    <t>P264</t>
+  </si>
+  <si>
+    <t>P265</t>
+  </si>
+  <si>
+    <t>P266</t>
+  </si>
+  <si>
+    <t>P267</t>
+  </si>
+  <si>
+    <t>P268</t>
+  </si>
+  <si>
+    <t>P269</t>
+  </si>
+  <si>
+    <t>P270</t>
+  </si>
+  <si>
+    <t>P271</t>
+  </si>
+  <si>
+    <t>P272</t>
+  </si>
+  <si>
+    <t>P273</t>
+  </si>
+  <si>
+    <t>P274</t>
+  </si>
+  <si>
+    <t>P275</t>
+  </si>
+  <si>
+    <t>P276</t>
+  </si>
+  <si>
+    <t>P277</t>
+  </si>
+  <si>
+    <t>P278</t>
+  </si>
+  <si>
+    <t>P10, P12</t>
+  </si>
+  <si>
+    <t>P39, P45</t>
+  </si>
+  <si>
+    <t>P70, P71</t>
+  </si>
+  <si>
+    <t>P13, P81</t>
+  </si>
+  <si>
+    <t>P80, P92</t>
+  </si>
+  <si>
+    <t>P7, P98</t>
+  </si>
+  <si>
+    <t>P101, P104</t>
+  </si>
+  <si>
+    <t>P16, P106</t>
+  </si>
+  <si>
+    <t>P101, P110</t>
+  </si>
+  <si>
+    <t>P101, P112</t>
+  </si>
+  <si>
+    <t>P101, P113</t>
+  </si>
+  <si>
+    <t>P101, P116</t>
+  </si>
+  <si>
+    <t>P122, P123</t>
+  </si>
+  <si>
+    <t>P56, P125</t>
+  </si>
+  <si>
+    <t>P42, P134</t>
+  </si>
+  <si>
+    <t>P59, P138</t>
+  </si>
+  <si>
+    <t>P135, P139</t>
+  </si>
+  <si>
+    <t>P101, P151</t>
+  </si>
+  <si>
+    <t>P1, P160</t>
+  </si>
+  <si>
+    <t>P59, P179</t>
+  </si>
+  <si>
+    <t>P161, P182</t>
+  </si>
+  <si>
+    <t>P183, P184</t>
+  </si>
+  <si>
+    <t>P171, P185</t>
+  </si>
+  <si>
+    <t>P203, P204</t>
+  </si>
+  <si>
+    <t>P122, P223</t>
+  </si>
+  <si>
+    <t>P226, P227</t>
+  </si>
+  <si>
+    <t>P236, P237</t>
+  </si>
+  <si>
+    <t>P55, P243</t>
+  </si>
+  <si>
+    <t>P177, P247</t>
+  </si>
+  <si>
+    <t>P246, P249</t>
+  </si>
+  <si>
+    <t>P255, P263</t>
+  </si>
+  <si>
+    <t>P101, P267</t>
+  </si>
+  <si>
+    <t>P246, P269</t>
+  </si>
+  <si>
+    <t>P101, P273</t>
+  </si>
+  <si>
+    <t>P41, P275</t>
+  </si>
+  <si>
+    <t>P203, P276</t>
+  </si>
+  <si>
+    <t>P7, P278</t>
   </si>
 </sst>
 </file>
@@ -4696,6 +5644,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4797,12 +5751,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5097,444 +6045,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
     </row>
     <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="58"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="58"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="60"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="58"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="40"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="32"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
     </row>
     <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="45"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="45"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
@@ -5543,415 +6491,415 @@
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="38"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="38"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="40"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="42"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
+      <c r="A64" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="36"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
     </row>
     <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="36"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="36"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="38"/>
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="38"/>
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="38"/>
+      <c r="A74" s="39"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="38"/>
+      <c r="A75" s="39"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="38"/>
+      <c r="A76" s="39"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="38"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="38"/>
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="44"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="34" t="s">
+      <c r="A80" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="36"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="38"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="38"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="38"/>
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="38"/>
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="38"/>
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="38"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="38"/>
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="38"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="28"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="30"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="34" t="s">
+      <c r="A91" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="37" t="s">
+      <c r="A93" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="38"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="38"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="38"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="38"/>
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="38"/>
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="38"/>
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="38"/>
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="38"/>
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="40"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="28"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="30"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="36"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="37" t="s">
+      <c r="A104" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="38"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="38"/>
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="40"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="38"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="38"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="40"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="38"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="40"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="38"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="40"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="38"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="40"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="38"/>
+      <c r="A111" s="39"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="40"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="28"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -7434,7 +8382,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
@@ -7449,83 +8397,83 @@
     <row r="1" spans="1:24" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7540,7 +8488,7 @@
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="P6" s="1">
         <v>1000</v>
@@ -7564,7 +8512,7 @@
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>720</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7881,9 +8829,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AP280"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7935,98 +8883,98 @@
       <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="61" t="s">
-        <v>717</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>718</v>
-      </c>
-      <c r="N1" s="61" t="s">
+      <c r="L1" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="61" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="27" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="61" t="s">
-        <v>720</v>
-      </c>
-      <c r="T1" s="62" t="s">
-        <v>721</v>
-      </c>
-      <c r="U1" s="62" t="s">
-        <v>722</v>
-      </c>
-      <c r="V1" s="62" t="s">
-        <v>723</v>
-      </c>
-      <c r="W1" s="62" t="s">
-        <v>724</v>
-      </c>
-      <c r="X1" s="62" t="s">
-        <v>725</v>
-      </c>
-      <c r="Y1" s="62" t="s">
-        <v>726</v>
-      </c>
-      <c r="Z1" s="62" t="s">
-        <v>727</v>
-      </c>
-      <c r="AA1" s="62" t="s">
-        <v>728</v>
-      </c>
-      <c r="AB1" s="62" t="s">
-        <v>729</v>
-      </c>
-      <c r="AC1" s="62" t="s">
-        <v>730</v>
-      </c>
-      <c r="AD1" s="62" t="s">
-        <v>731</v>
-      </c>
-      <c r="AE1" s="62" t="s">
-        <v>732</v>
-      </c>
-      <c r="AF1" s="62" t="s">
-        <v>733</v>
-      </c>
-      <c r="AG1" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="AH1" s="62" t="s">
-        <v>735</v>
-      </c>
-      <c r="AI1" s="62" t="s">
-        <v>736</v>
-      </c>
-      <c r="AJ1" s="62" t="s">
-        <v>737</v>
-      </c>
-      <c r="AK1" s="62" t="s">
-        <v>738</v>
-      </c>
-      <c r="AL1" s="62" t="s">
-        <v>739</v>
-      </c>
-      <c r="AM1" s="62" t="s">
-        <v>740</v>
-      </c>
-      <c r="AN1" s="62" t="s">
-        <v>741</v>
-      </c>
-      <c r="AO1" s="62" t="s">
-        <v>742</v>
-      </c>
-      <c r="AP1" s="62" t="s">
-        <v>743</v>
+      <c r="S1" s="27" t="s">
+        <v>683</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>686</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>687</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>692</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>693</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>694</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>703</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>704</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -8054,7 +9002,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="9" t="s">
-        <v>438</v>
+        <v>744</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="1">
@@ -8122,7 +9070,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="9" t="s">
-        <v>439</v>
+        <v>745</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="1">
@@ -8195,7 +9143,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="9" t="s">
-        <v>440</v>
+        <v>746</v>
       </c>
       <c r="K4" s="9"/>
       <c r="P4" s="1"/>
@@ -8251,7 +9199,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="9" t="s">
-        <v>441</v>
+        <v>747</v>
       </c>
       <c r="K5" s="9"/>
       <c r="P5" s="1"/>
@@ -8307,7 +9255,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="9" t="s">
-        <v>442</v>
+        <v>748</v>
       </c>
       <c r="K6" s="9"/>
       <c r="P6" s="1"/>
@@ -8363,7 +9311,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="9" t="s">
-        <v>443</v>
+        <v>749</v>
       </c>
       <c r="K7" s="9"/>
       <c r="P7" s="1"/>
@@ -8419,7 +9367,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="9" t="s">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="K8" s="9"/>
       <c r="P8" s="1"/>
@@ -8475,7 +9423,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="9" t="s">
-        <v>445</v>
+        <v>751</v>
       </c>
       <c r="K9" s="9"/>
       <c r="P9" s="1"/>
@@ -8531,7 +9479,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="9" t="s">
-        <v>446</v>
+        <v>752</v>
       </c>
       <c r="K10" s="9"/>
       <c r="P10" s="1"/>
@@ -8587,7 +9535,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="9" t="s">
-        <v>447</v>
+        <v>753</v>
       </c>
       <c r="K11" s="9"/>
       <c r="P11" s="1"/>
@@ -8643,7 +9591,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="9" t="s">
-        <v>448</v>
+        <v>754</v>
       </c>
       <c r="K12" s="9"/>
       <c r="P12" s="1"/>
@@ -8699,7 +9647,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="9" t="s">
-        <v>449</v>
+        <v>755</v>
       </c>
       <c r="K13" s="9"/>
       <c r="P13" s="1"/>
@@ -8755,7 +9703,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="9" t="s">
-        <v>450</v>
+        <v>1023</v>
       </c>
       <c r="K14" s="9"/>
       <c r="P14" s="1"/>
@@ -8811,7 +9759,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="9" t="s">
-        <v>451</v>
+        <v>757</v>
       </c>
       <c r="K15" s="9"/>
       <c r="P15" s="1"/>
@@ -8867,7 +9815,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="9" t="s">
-        <v>452</v>
+        <v>758</v>
       </c>
       <c r="K16" s="9"/>
       <c r="P16" s="1"/>
@@ -8923,7 +9871,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="9" t="s">
-        <v>453</v>
+        <v>759</v>
       </c>
       <c r="K17" s="9"/>
       <c r="P17" s="1"/>
@@ -8979,7 +9927,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="9" t="s">
-        <v>454</v>
+        <v>760</v>
       </c>
       <c r="K18" s="9"/>
       <c r="M18" s="1">
@@ -9052,7 +10000,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="9" t="s">
-        <v>455</v>
+        <v>761</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -9124,7 +10072,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="9" t="s">
-        <v>456</v>
+        <v>762</v>
       </c>
       <c r="M20" s="1">
         <v>1</v>
@@ -9196,7 +10144,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="9" t="s">
-        <v>457</v>
+        <v>763</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -9268,7 +10216,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="9" t="s">
-        <v>458</v>
+        <v>764</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -9340,7 +10288,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="9" t="s">
-        <v>459</v>
+        <v>765</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -9412,7 +10360,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="9" t="s">
-        <v>460</v>
+        <v>766</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="1">
@@ -9485,7 +10433,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="9" t="s">
-        <v>461</v>
+        <v>767</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="1">
@@ -9558,7 +10506,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="9" t="s">
-        <v>462</v>
+        <v>768</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="1">
@@ -9631,7 +10579,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="9" t="s">
-        <v>463</v>
+        <v>769</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="1">
@@ -9704,7 +10652,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="9" t="s">
-        <v>464</v>
+        <v>770</v>
       </c>
       <c r="L28" s="1">
         <v>1</v>
@@ -9776,7 +10724,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="9" t="s">
-        <v>465</v>
+        <v>771</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
@@ -9848,7 +10796,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="9" t="s">
-        <v>466</v>
+        <v>772</v>
       </c>
       <c r="L30" s="1">
         <v>1</v>
@@ -9919,7 +10867,7 @@
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="9" t="s">
-        <v>467</v>
+        <v>773</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -9992,7 +10940,7 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="9" t="s">
-        <v>468</v>
+        <v>774</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -10065,7 +11013,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="9" t="s">
-        <v>469</v>
+        <v>775</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="1">
@@ -10139,7 +11087,7 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="9" t="s">
-        <v>470</v>
+        <v>776</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="1">
@@ -10213,7 +11161,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="9" t="s">
-        <v>471</v>
+        <v>777</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="1">
@@ -10287,7 +11235,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="9" t="s">
-        <v>472</v>
+        <v>778</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -10360,7 +11308,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="9" t="s">
-        <v>473</v>
+        <v>779</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="1">
@@ -10434,7 +11382,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="9" t="s">
-        <v>474</v>
+        <v>780</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="1">
@@ -10506,7 +11454,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>475</v>
+        <v>781</v>
       </c>
       <c r="L39" s="1">
         <v>1</v>
@@ -10577,7 +11525,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>476</v>
+        <v>782</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -10630,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>477</v>
+        <v>783</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -10683,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>478</v>
+        <v>784</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -10736,7 +11684,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>479</v>
+        <v>785</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -10789,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>480</v>
+        <v>786</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -10853,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>481</v>
+        <v>787</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -10906,7 +11854,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>482</v>
+        <v>788</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -10959,7 +11907,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>483</v>
+        <v>1024</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -11012,7 +11960,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>484</v>
+        <v>790</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -11065,7 +12013,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>485</v>
+        <v>791</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -11118,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>486</v>
+        <v>792</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -11171,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>487</v>
+        <v>793</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -11224,7 +12172,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>488</v>
+        <v>794</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -11277,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>489</v>
+        <v>795</v>
       </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -11330,7 +12278,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>490</v>
+        <v>796</v>
       </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1">
@@ -11389,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>491</v>
+        <v>797</v>
       </c>
       <c r="M55" s="1">
         <v>1</v>
@@ -11459,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>492</v>
+        <v>798</v>
       </c>
       <c r="M56" s="1">
         <v>1</v>
@@ -11529,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>493</v>
+        <v>799</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
@@ -11599,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>494</v>
+        <v>800</v>
       </c>
       <c r="L58" s="1">
         <v>1</v>
@@ -11669,7 +12617,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>495</v>
+        <v>801</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
@@ -11739,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>496</v>
+        <v>802</v>
       </c>
       <c r="L60" s="1">
         <v>1</v>
@@ -11809,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>497</v>
+        <v>803</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -11865,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>498</v>
+        <v>804</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
@@ -11930,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>499</v>
+        <v>805</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
@@ -11995,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>500</v>
+        <v>806</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
@@ -12063,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>501</v>
+        <v>807</v>
       </c>
       <c r="L65" s="1">
         <v>1</v>
@@ -12131,7 +13079,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>502</v>
+        <v>808</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
@@ -12199,7 +13147,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>503</v>
+        <v>809</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
@@ -12258,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>504</v>
+        <v>810</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -12311,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>505</v>
+        <v>811</v>
       </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -12364,7 +13312,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>506</v>
+        <v>812</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -12417,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>507</v>
+        <v>813</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1">
@@ -12476,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>508</v>
+        <v>814</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1">
@@ -12535,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>509</v>
+        <v>1025</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1">
@@ -12594,7 +13542,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>510</v>
+        <v>816</v>
       </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -12647,7 +13595,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>511</v>
+        <v>817</v>
       </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1">
@@ -12706,7 +13654,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>512</v>
+        <v>818</v>
       </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -12759,7 +13707,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>513</v>
+        <v>819</v>
       </c>
       <c r="M77" s="1">
         <v>1</v>
@@ -12829,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>514</v>
+        <v>820</v>
       </c>
       <c r="M78" s="1">
         <v>1</v>
@@ -12899,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>515</v>
+        <v>821</v>
       </c>
       <c r="L79" s="1">
         <v>1</v>
@@ -12969,7 +13917,7 @@
         <v>1</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>516</v>
+        <v>822</v>
       </c>
       <c r="L80" s="1">
         <v>1</v>
@@ -13039,7 +13987,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>517</v>
+        <v>823</v>
       </c>
       <c r="L81" s="1">
         <v>1</v>
@@ -13109,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>518</v>
+        <v>824</v>
       </c>
       <c r="L82" s="1">
         <v>1</v>
@@ -13179,7 +14127,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>519</v>
+        <v>1026</v>
       </c>
       <c r="L83" s="1">
         <v>1</v>
@@ -13249,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>520</v>
+        <v>826</v>
       </c>
       <c r="L84" s="1">
         <v>1</v>
@@ -13319,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>521</v>
+        <v>827</v>
       </c>
       <c r="L85" s="1">
         <v>1</v>
@@ -13389,7 +14337,7 @@
         <v>1</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>522</v>
+        <v>828</v>
       </c>
       <c r="L86" s="1">
         <v>1</v>
@@ -13459,7 +14407,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>523</v>
+        <v>829</v>
       </c>
       <c r="L87" s="1">
         <v>1</v>
@@ -13529,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>524</v>
+        <v>830</v>
       </c>
       <c r="L88" s="1">
         <v>1</v>
@@ -13599,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>525</v>
+        <v>831</v>
       </c>
       <c r="L89" s="1">
         <v>1</v>
@@ -13670,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>526</v>
+        <v>832</v>
       </c>
       <c r="L90" s="1">
         <v>1</v>
@@ -13741,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>527</v>
+        <v>833</v>
       </c>
       <c r="L91" s="1">
         <v>1</v>
@@ -13812,7 +14760,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>528</v>
+        <v>834</v>
       </c>
       <c r="L92" s="1">
         <v>1</v>
@@ -13883,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>529</v>
+        <v>835</v>
       </c>
       <c r="L93" s="1">
         <v>1</v>
@@ -13954,7 +14902,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>530</v>
+        <v>1027</v>
       </c>
       <c r="L94" s="1">
         <v>1</v>
@@ -14025,7 +14973,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>531</v>
+        <v>837</v>
       </c>
       <c r="L95" s="1">
         <v>1</v>
@@ -14096,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>532</v>
+        <v>838</v>
       </c>
       <c r="L96" s="1">
         <v>1</v>
@@ -14167,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>533</v>
+        <v>839</v>
       </c>
       <c r="L97" s="1">
         <v>1</v>
@@ -14238,7 +15186,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>534</v>
+        <v>840</v>
       </c>
       <c r="L98" s="1">
         <v>1</v>
@@ -14309,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>535</v>
+        <v>841</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -14362,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>536</v>
+        <v>1028</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -14415,7 +15363,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>537</v>
+        <v>843</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -14468,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>538</v>
+        <v>844</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -14521,7 +15469,7 @@
         <v>1</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>539</v>
+        <v>845</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -14574,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>540</v>
+        <v>846</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -14627,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>541</v>
+        <v>847</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -14680,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>542</v>
+        <v>1029</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -14733,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>543</v>
+        <v>849</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -14786,7 +15734,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>544</v>
+        <v>1030</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -14839,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>545</v>
+        <v>851</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -14892,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>546</v>
+        <v>852</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -14945,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>547</v>
+        <v>853</v>
       </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
@@ -14998,7 +15946,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>548</v>
+        <v>1031</v>
       </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
@@ -15051,7 +15999,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>549</v>
+        <v>855</v>
       </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -15104,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>550</v>
+        <v>1032</v>
       </c>
       <c r="L114" s="1">
         <v>1</v>
@@ -15166,7 +16114,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>551</v>
+        <v>1033</v>
       </c>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
@@ -15219,7 +16167,7 @@
         <v>1</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>552</v>
+        <v>858</v>
       </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
@@ -15272,7 +16220,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>553</v>
+        <v>859</v>
       </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
@@ -15325,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="J118" s="9" t="s">
-        <v>554</v>
+        <v>1034</v>
       </c>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -15378,7 +16326,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>555</v>
+        <v>861</v>
       </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
@@ -15431,7 +16379,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>556</v>
+        <v>862</v>
       </c>
       <c r="L120" s="1">
         <v>1</v>
@@ -15490,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>557</v>
+        <v>863</v>
       </c>
       <c r="N121" s="1">
         <v>1</v>
@@ -15557,7 +16505,7 @@
         <v>1</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>558</v>
+        <v>864</v>
       </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1">
@@ -15616,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="9" t="s">
-        <v>559</v>
+        <v>865</v>
       </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -15669,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="9" t="s">
-        <v>560</v>
+        <v>866</v>
       </c>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
@@ -15722,7 +16670,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>561</v>
+        <v>1035</v>
       </c>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
@@ -15775,7 +16723,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>562</v>
+        <v>868</v>
       </c>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
@@ -15828,7 +16776,7 @@
         <v>1</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>563</v>
+        <v>1036</v>
       </c>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
@@ -15881,7 +16829,7 @@
         <v>1</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>564</v>
+        <v>870</v>
       </c>
       <c r="N128" s="1">
         <v>1</v>
@@ -15948,7 +16896,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>565</v>
+        <v>871</v>
       </c>
       <c r="N129" s="1">
         <v>1</v>
@@ -16015,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>566</v>
+        <v>872</v>
       </c>
       <c r="N130" s="1">
         <v>1</v>
@@ -16082,7 +17030,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>567</v>
+        <v>873</v>
       </c>
       <c r="L131" s="1">
         <v>1</v>
@@ -16147,7 +17095,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="9" t="s">
-        <v>568</v>
+        <v>874</v>
       </c>
       <c r="L132" s="1">
         <v>1</v>
@@ -16212,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="9" t="s">
-        <v>569</v>
+        <v>875</v>
       </c>
       <c r="L133" s="1">
         <v>1</v>
@@ -16279,7 +17227,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>570</v>
+        <v>876</v>
       </c>
       <c r="L134" s="1">
         <v>1</v>
@@ -16346,7 +17294,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="9" t="s">
-        <v>571</v>
+        <v>877</v>
       </c>
       <c r="L135" s="1">
         <v>1</v>
@@ -16417,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>572</v>
+        <v>1037</v>
       </c>
       <c r="L136" s="1">
         <v>1</v>
@@ -16488,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>573</v>
+        <v>879</v>
       </c>
       <c r="L137" s="1">
         <v>1</v>
@@ -16559,7 +17507,7 @@
         <v>1</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>574</v>
+        <v>880</v>
       </c>
       <c r="L138" s="1">
         <v>1</v>
@@ -16630,7 +17578,7 @@
         <v>1</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>575</v>
+        <v>881</v>
       </c>
       <c r="L139" s="1">
         <v>1</v>
@@ -16701,7 +17649,7 @@
         <v>1</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>576</v>
+        <v>1038</v>
       </c>
       <c r="L140" s="1">
         <v>1</v>
@@ -16772,7 +17720,7 @@
         <v>1</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>577</v>
+        <v>1039</v>
       </c>
       <c r="L141" s="1">
         <v>1</v>
@@ -16843,7 +17791,7 @@
         <v>1</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>578</v>
+        <v>884</v>
       </c>
       <c r="L142" s="1">
         <v>1</v>
@@ -16914,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>579</v>
+        <v>885</v>
       </c>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
@@ -16967,7 +17915,7 @@
         <v>1</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>580</v>
+        <v>886</v>
       </c>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
@@ -17022,7 +17970,7 @@
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
       <c r="J145" s="9" t="s">
-        <v>581</v>
+        <v>887</v>
       </c>
       <c r="K145" s="6"/>
       <c r="L145" s="1"/>
@@ -17082,7 +18030,7 @@
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
       <c r="J146" s="9" t="s">
-        <v>582</v>
+        <v>888</v>
       </c>
       <c r="K146" s="6"/>
       <c r="L146" s="1"/>
@@ -17142,7 +18090,7 @@
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
       <c r="J147" s="9" t="s">
-        <v>583</v>
+        <v>889</v>
       </c>
       <c r="K147" s="6"/>
       <c r="L147" s="1">
@@ -17210,7 +18158,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
       <c r="J148" s="9" t="s">
-        <v>584</v>
+        <v>890</v>
       </c>
       <c r="K148" s="6"/>
       <c r="L148" s="1"/>
@@ -17270,7 +18218,7 @@
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="9" t="s">
-        <v>585</v>
+        <v>891</v>
       </c>
       <c r="K149" s="6"/>
       <c r="L149" s="1"/>
@@ -17330,7 +18278,7 @@
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
       <c r="J150" s="9" t="s">
-        <v>586</v>
+        <v>892</v>
       </c>
       <c r="K150" s="6"/>
       <c r="L150" s="1"/>
@@ -17390,7 +18338,7 @@
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
       <c r="J151" s="9" t="s">
-        <v>587</v>
+        <v>893</v>
       </c>
       <c r="K151" s="6"/>
       <c r="L151" s="1"/>
@@ -17450,7 +18398,7 @@
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
       <c r="J152" s="9" t="s">
-        <v>588</v>
+        <v>894</v>
       </c>
       <c r="K152" s="6"/>
       <c r="L152" s="1"/>
@@ -17510,7 +18458,7 @@
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
       <c r="J153" s="9" t="s">
-        <v>589</v>
+        <v>1040</v>
       </c>
       <c r="K153" s="6"/>
       <c r="L153" s="1"/>
@@ -17570,7 +18518,7 @@
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
       <c r="J154" s="9" t="s">
-        <v>590</v>
+        <v>896</v>
       </c>
       <c r="K154" s="6"/>
       <c r="L154" s="1"/>
@@ -17630,7 +18578,7 @@
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
       <c r="J155" s="9" t="s">
-        <v>591</v>
+        <v>897</v>
       </c>
       <c r="K155" s="6"/>
       <c r="L155" s="1"/>
@@ -17690,7 +18638,7 @@
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
       <c r="J156" s="9" t="s">
-        <v>592</v>
+        <v>898</v>
       </c>
       <c r="K156" s="6"/>
       <c r="L156" s="1"/>
@@ -17750,7 +18698,7 @@
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
       <c r="J157" s="9" t="s">
-        <v>593</v>
+        <v>899</v>
       </c>
       <c r="K157" s="6"/>
       <c r="L157" s="1"/>
@@ -17808,7 +18756,7 @@
         <v>1</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>594</v>
+        <v>900</v>
       </c>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
@@ -17861,7 +18809,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>595</v>
+        <v>901</v>
       </c>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
@@ -17914,7 +18862,7 @@
         <v>1</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>596</v>
+        <v>902</v>
       </c>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
@@ -17967,7 +18915,7 @@
         <v>1</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>597</v>
+        <v>903</v>
       </c>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
@@ -18020,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>598</v>
+        <v>1041</v>
       </c>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
@@ -18073,7 +19021,7 @@
         <v>1</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>599</v>
+        <v>905</v>
       </c>
       <c r="N163" s="1">
         <v>1</v>
@@ -18140,7 +19088,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="9" t="s">
-        <v>600</v>
+        <v>906</v>
       </c>
       <c r="N164" s="1">
         <v>1</v>
@@ -18201,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="9" t="s">
-        <v>601</v>
+        <v>907</v>
       </c>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
@@ -18254,7 +19202,7 @@
         <v>1</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>602</v>
+        <v>908</v>
       </c>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
@@ -18307,7 +19255,7 @@
         <v>1</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>603</v>
+        <v>909</v>
       </c>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
@@ -18360,7 +19308,7 @@
         <v>1</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>604</v>
+        <v>910</v>
       </c>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
@@ -18413,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>605</v>
+        <v>911</v>
       </c>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
@@ -18466,7 +19414,7 @@
         <v>1</v>
       </c>
       <c r="J170" s="9" t="s">
-        <v>606</v>
+        <v>912</v>
       </c>
       <c r="N170" s="1">
         <v>1</v>
@@ -18533,7 +19481,7 @@
         <v>1</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>607</v>
+        <v>913</v>
       </c>
       <c r="N171" s="1">
         <v>1</v>
@@ -18600,7 +19548,7 @@
         <v>1</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>608</v>
+        <v>914</v>
       </c>
       <c r="N172" s="1">
         <v>1</v>
@@ -18667,7 +19615,7 @@
         <v>1</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>609</v>
+        <v>915</v>
       </c>
       <c r="L173" s="1">
         <v>1</v>
@@ -18732,7 +19680,7 @@
         <v>1</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>610</v>
+        <v>916</v>
       </c>
       <c r="L174" s="1">
         <v>1</v>
@@ -18799,7 +19747,7 @@
         <v>1</v>
       </c>
       <c r="J175" s="9" t="s">
-        <v>611</v>
+        <v>917</v>
       </c>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
@@ -18852,7 +19800,7 @@
         <v>1</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>612</v>
+        <v>918</v>
       </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
@@ -18905,7 +19853,7 @@
         <v>1</v>
       </c>
       <c r="J177" s="9" t="s">
-        <v>613</v>
+        <v>919</v>
       </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
@@ -18958,7 +19906,7 @@
         <v>1</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>614</v>
+        <v>920</v>
       </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
@@ -19011,7 +19959,7 @@
         <v>1</v>
       </c>
       <c r="J179" s="9" t="s">
-        <v>615</v>
+        <v>921</v>
       </c>
       <c r="L179" s="1">
         <v>1</v>
@@ -19081,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>616</v>
+        <v>922</v>
       </c>
       <c r="L180" s="1">
         <v>1</v>
@@ -19151,7 +20099,7 @@
         <v>1</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>617</v>
+        <v>1042</v>
       </c>
       <c r="L181" s="1">
         <v>1</v>
@@ -19222,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>618</v>
+        <v>924</v>
       </c>
       <c r="L182" s="1">
         <v>1</v>
@@ -19293,7 +20241,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>619</v>
+        <v>925</v>
       </c>
       <c r="L183" s="1">
         <v>1</v>
@@ -19364,7 +20312,7 @@
         <v>1</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>620</v>
+        <v>1043</v>
       </c>
       <c r="L184" s="1">
         <v>1</v>
@@ -19435,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>621</v>
+        <v>927</v>
       </c>
       <c r="L185" s="1">
         <v>1</v>
@@ -19506,7 +20454,7 @@
         <v>1</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>622</v>
+        <v>1044</v>
       </c>
       <c r="N186" s="1">
         <v>1</v>
@@ -19573,7 +20521,7 @@
         <v>1</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>623</v>
+        <v>1045</v>
       </c>
       <c r="L187" s="1">
         <v>1</v>
@@ -19644,7 +20592,7 @@
         <v>1</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>624</v>
+        <v>930</v>
       </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
@@ -19697,7 +20645,7 @@
         <v>1</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>625</v>
+        <v>931</v>
       </c>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
@@ -19750,7 +20698,7 @@
         <v>1</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>626</v>
+        <v>932</v>
       </c>
       <c r="P190" s="1"/>
       <c r="Q190" s="1">
@@ -19809,7 +20757,7 @@
         <v>1</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>627</v>
+        <v>933</v>
       </c>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
@@ -19862,7 +20810,7 @@
         <v>1</v>
       </c>
       <c r="J192" s="9" t="s">
-        <v>628</v>
+        <v>934</v>
       </c>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
@@ -19915,7 +20863,7 @@
         <v>1</v>
       </c>
       <c r="J193" s="9" t="s">
-        <v>629</v>
+        <v>935</v>
       </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
@@ -19968,7 +20916,7 @@
         <v>1</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>630</v>
+        <v>936</v>
       </c>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
@@ -20021,7 +20969,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>631</v>
+        <v>937</v>
       </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1">
@@ -20080,7 +21028,7 @@
         <v>1</v>
       </c>
       <c r="J196" s="9" t="s">
-        <v>632</v>
+        <v>938</v>
       </c>
       <c r="N196" s="1">
         <v>1</v>
@@ -20147,7 +21095,7 @@
         <v>1</v>
       </c>
       <c r="J197" s="9" t="s">
-        <v>633</v>
+        <v>939</v>
       </c>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
@@ -20200,7 +21148,7 @@
         <v>1</v>
       </c>
       <c r="J198" s="9" t="s">
-        <v>634</v>
+        <v>940</v>
       </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
@@ -20253,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="9" t="s">
-        <v>635</v>
+        <v>941</v>
       </c>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
@@ -20306,7 +21254,7 @@
         <v>1</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>636</v>
+        <v>942</v>
       </c>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
@@ -20359,7 +21307,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="9" t="s">
-        <v>637</v>
+        <v>943</v>
       </c>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
@@ -20412,7 +21360,7 @@
         <v>1</v>
       </c>
       <c r="J202" s="9" t="s">
-        <v>638</v>
+        <v>944</v>
       </c>
       <c r="N202" s="1">
         <v>1</v>
@@ -20479,7 +21427,7 @@
         <v>1</v>
       </c>
       <c r="J203" s="9" t="s">
-        <v>639</v>
+        <v>945</v>
       </c>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
@@ -20532,7 +21480,7 @@
         <v>1</v>
       </c>
       <c r="J204" s="9" t="s">
-        <v>640</v>
+        <v>946</v>
       </c>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
@@ -20585,7 +21533,7 @@
         <v>1</v>
       </c>
       <c r="J205" s="9" t="s">
-        <v>641</v>
+        <v>947</v>
       </c>
       <c r="N205" s="1">
         <v>1</v>
@@ -20646,7 +21594,7 @@
         <v>1</v>
       </c>
       <c r="J206" s="9" t="s">
-        <v>642</v>
+        <v>1046</v>
       </c>
       <c r="N206" s="1">
         <v>1</v>
@@ -20707,7 +21655,7 @@
         <v>1</v>
       </c>
       <c r="J207" s="9" t="s">
-        <v>643</v>
+        <v>949</v>
       </c>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
@@ -20760,7 +21708,7 @@
         <v>1</v>
       </c>
       <c r="J208" s="9" t="s">
-        <v>644</v>
+        <v>950</v>
       </c>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
@@ -20813,7 +21761,7 @@
         <v>1</v>
       </c>
       <c r="J209" s="9" t="s">
-        <v>645</v>
+        <v>951</v>
       </c>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
@@ -20866,7 +21814,7 @@
         <v>1</v>
       </c>
       <c r="J210" s="9" t="s">
-        <v>646</v>
+        <v>952</v>
       </c>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
@@ -20919,7 +21867,7 @@
         <v>1</v>
       </c>
       <c r="J211" s="9" t="s">
-        <v>647</v>
+        <v>953</v>
       </c>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
@@ -20972,7 +21920,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="9" t="s">
-        <v>648</v>
+        <v>954</v>
       </c>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
@@ -21025,7 +21973,7 @@
         <v>1</v>
       </c>
       <c r="J213" s="9" t="s">
-        <v>649</v>
+        <v>955</v>
       </c>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
@@ -21078,7 +22026,7 @@
         <v>1</v>
       </c>
       <c r="J214" s="9" t="s">
-        <v>650</v>
+        <v>956</v>
       </c>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
@@ -21131,7 +22079,7 @@
         <v>1</v>
       </c>
       <c r="J215" s="9" t="s">
-        <v>651</v>
+        <v>957</v>
       </c>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
@@ -21184,7 +22132,7 @@
         <v>1</v>
       </c>
       <c r="J216" s="9" t="s">
-        <v>652</v>
+        <v>958</v>
       </c>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
@@ -21237,7 +22185,7 @@
         <v>1</v>
       </c>
       <c r="J217" s="9" t="s">
-        <v>653</v>
+        <v>959</v>
       </c>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
@@ -21290,7 +22238,7 @@
         <v>1</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>654</v>
+        <v>960</v>
       </c>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
@@ -21343,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>655</v>
+        <v>961</v>
       </c>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
@@ -21396,7 +22344,7 @@
         <v>1</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>656</v>
+        <v>962</v>
       </c>
       <c r="L220" s="1">
         <v>1</v>
@@ -21455,7 +22403,7 @@
         <v>1</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>657</v>
+        <v>963</v>
       </c>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
@@ -21508,7 +22456,7 @@
         <v>1</v>
       </c>
       <c r="J222" s="9" t="s">
-        <v>658</v>
+        <v>964</v>
       </c>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
@@ -21561,7 +22509,7 @@
         <v>1</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>659</v>
+        <v>965</v>
       </c>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
@@ -21614,7 +22562,7 @@
         <v>1</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>660</v>
+        <v>966</v>
       </c>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
@@ -21667,7 +22615,7 @@
         <v>1</v>
       </c>
       <c r="J225" s="9" t="s">
-        <v>661</v>
+        <v>1047</v>
       </c>
       <c r="L225" s="1">
         <v>1</v>
@@ -21732,7 +22680,7 @@
         <v>1</v>
       </c>
       <c r="J226" s="9" t="s">
-        <v>662</v>
+        <v>968</v>
       </c>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
@@ -21785,7 +22733,7 @@
         <v>1</v>
       </c>
       <c r="J227" s="9" t="s">
-        <v>663</v>
+        <v>969</v>
       </c>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
@@ -21838,7 +22786,7 @@
         <v>1</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>664</v>
+        <v>970</v>
       </c>
       <c r="N228" s="1">
         <v>1</v>
@@ -21905,7 +22853,7 @@
         <v>1</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>665</v>
+        <v>1048</v>
       </c>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
@@ -21958,7 +22906,7 @@
         <v>1</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>666</v>
+        <v>972</v>
       </c>
       <c r="P230" s="1"/>
       <c r="Q230" s="1">
@@ -22017,7 +22965,7 @@
         <v>1</v>
       </c>
       <c r="J231" s="9" t="s">
-        <v>667</v>
+        <v>973</v>
       </c>
       <c r="P231" s="1"/>
       <c r="Q231" s="1">
@@ -22076,7 +23024,7 @@
         <v>1</v>
       </c>
       <c r="J232" s="9" t="s">
-        <v>668</v>
+        <v>974</v>
       </c>
       <c r="O232" s="1">
         <v>1</v>
@@ -22140,7 +23088,7 @@
         <v>1</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>669</v>
+        <v>975</v>
       </c>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
@@ -22193,7 +23141,7 @@
         <v>1</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>670</v>
+        <v>976</v>
       </c>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
@@ -22246,7 +23194,7 @@
         <v>1</v>
       </c>
       <c r="J235" s="9" t="s">
-        <v>671</v>
+        <v>977</v>
       </c>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
@@ -22299,7 +23247,7 @@
         <v>1</v>
       </c>
       <c r="J236" s="9" t="s">
-        <v>672</v>
+        <v>978</v>
       </c>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
@@ -22352,7 +23300,7 @@
         <v>1</v>
       </c>
       <c r="J237" s="9" t="s">
-        <v>673</v>
+        <v>979</v>
       </c>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
@@ -22405,7 +23353,7 @@
         <v>1</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>674</v>
+        <v>1049</v>
       </c>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
@@ -22458,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>675</v>
+        <v>980</v>
       </c>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
@@ -22511,7 +23459,7 @@
         <v>1</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>676</v>
+        <v>982</v>
       </c>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
@@ -22564,7 +23512,7 @@
         <v>1</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>677</v>
+        <v>983</v>
       </c>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
@@ -22617,7 +23565,7 @@
         <v>1</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>678</v>
+        <v>984</v>
       </c>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
@@ -22670,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="J243" s="9" t="s">
-        <v>679</v>
+        <v>985</v>
       </c>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
@@ -22723,7 +23671,7 @@
         <v>1</v>
       </c>
       <c r="J244" s="9" t="s">
-        <v>680</v>
+        <v>986</v>
       </c>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
@@ -22776,7 +23724,7 @@
         <v>1</v>
       </c>
       <c r="J245" s="9" t="s">
-        <v>681</v>
+        <v>1050</v>
       </c>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
@@ -22829,7 +23777,7 @@
         <v>1</v>
       </c>
       <c r="J246" s="9" t="s">
-        <v>682</v>
+        <v>988</v>
       </c>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
@@ -22882,7 +23830,7 @@
         <v>1</v>
       </c>
       <c r="J247" s="9" t="s">
-        <v>683</v>
+        <v>989</v>
       </c>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
@@ -22935,7 +23883,7 @@
         <v>1</v>
       </c>
       <c r="J248" s="9" t="s">
-        <v>684</v>
+        <v>990</v>
       </c>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
@@ -22988,7 +23936,7 @@
         <v>1</v>
       </c>
       <c r="J249" s="9" t="s">
-        <v>685</v>
+        <v>1051</v>
       </c>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
@@ -23041,7 +23989,7 @@
         <v>1</v>
       </c>
       <c r="J250" s="9" t="s">
-        <v>686</v>
+        <v>992</v>
       </c>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
@@ -23094,7 +24042,7 @@
         <v>1</v>
       </c>
       <c r="J251" s="9" t="s">
-        <v>687</v>
+        <v>1052</v>
       </c>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
@@ -23147,7 +24095,7 @@
         <v>1</v>
       </c>
       <c r="J252" s="9" t="s">
-        <v>688</v>
+        <v>994</v>
       </c>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
@@ -23200,7 +24148,7 @@
         <v>1</v>
       </c>
       <c r="J253" s="9" t="s">
-        <v>689</v>
+        <v>995</v>
       </c>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
@@ -23253,7 +24201,7 @@
         <v>1</v>
       </c>
       <c r="J254" s="9" t="s">
-        <v>690</v>
+        <v>996</v>
       </c>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
@@ -23306,7 +24254,7 @@
         <v>1</v>
       </c>
       <c r="J255" s="9" t="s">
-        <v>691</v>
+        <v>997</v>
       </c>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
@@ -23359,7 +24307,7 @@
         <v>1</v>
       </c>
       <c r="J256" s="9" t="s">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
@@ -23412,7 +24360,7 @@
         <v>1</v>
       </c>
       <c r="J257" s="9" t="s">
-        <v>693</v>
+        <v>999</v>
       </c>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
@@ -23465,7 +24413,7 @@
         <v>1</v>
       </c>
       <c r="J258" s="9" t="s">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
@@ -23518,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="J259" s="9" t="s">
-        <v>695</v>
+        <v>1001</v>
       </c>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
@@ -23571,7 +24519,7 @@
         <v>1</v>
       </c>
       <c r="J260" s="9" t="s">
-        <v>696</v>
+        <v>1002</v>
       </c>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
@@ -23624,7 +24572,7 @@
         <v>1</v>
       </c>
       <c r="J261" s="9" t="s">
-        <v>697</v>
+        <v>1003</v>
       </c>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
@@ -23677,7 +24625,7 @@
         <v>1</v>
       </c>
       <c r="J262" s="9" t="s">
-        <v>698</v>
+        <v>1004</v>
       </c>
       <c r="P262" s="1"/>
       <c r="Q262" s="1">
@@ -23736,7 +24684,7 @@
         <v>1</v>
       </c>
       <c r="J263" s="9" t="s">
-        <v>699</v>
+        <v>1005</v>
       </c>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
@@ -23789,7 +24737,7 @@
         <v>1</v>
       </c>
       <c r="J264" s="9" t="s">
-        <v>700</v>
+        <v>1006</v>
       </c>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
@@ -23842,7 +24790,7 @@
         <v>1</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>701</v>
+        <v>1053</v>
       </c>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
@@ -23895,7 +24843,7 @@
         <v>1</v>
       </c>
       <c r="J266" s="9" t="s">
-        <v>702</v>
+        <v>1008</v>
       </c>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
@@ -23948,7 +24896,7 @@
         <v>1</v>
       </c>
       <c r="J267" s="9" t="s">
-        <v>703</v>
+        <v>1009</v>
       </c>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
@@ -24001,7 +24949,7 @@
         <v>1</v>
       </c>
       <c r="J268" s="9" t="s">
-        <v>704</v>
+        <v>1010</v>
       </c>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
@@ -24054,7 +25002,7 @@
         <v>1</v>
       </c>
       <c r="J269" s="9" t="s">
-        <v>705</v>
+        <v>1054</v>
       </c>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
@@ -24107,7 +25055,7 @@
         <v>1</v>
       </c>
       <c r="J270" s="9" t="s">
-        <v>706</v>
+        <v>1012</v>
       </c>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
@@ -24160,7 +25108,7 @@
         <v>1</v>
       </c>
       <c r="J271" s="9" t="s">
-        <v>707</v>
+        <v>1055</v>
       </c>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
@@ -24213,7 +25161,7 @@
         <v>1</v>
       </c>
       <c r="J272" s="9" t="s">
-        <v>708</v>
+        <v>1014</v>
       </c>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
@@ -24266,7 +25214,7 @@
         <v>1</v>
       </c>
       <c r="J273" s="9" t="s">
-        <v>709</v>
+        <v>1015</v>
       </c>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
@@ -24319,7 +25267,7 @@
         <v>1</v>
       </c>
       <c r="J274" s="9" t="s">
-        <v>710</v>
+        <v>1016</v>
       </c>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
@@ -24372,7 +25320,7 @@
         <v>1</v>
       </c>
       <c r="J275" s="9" t="s">
-        <v>711</v>
+        <v>1056</v>
       </c>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
@@ -24425,7 +25373,7 @@
         <v>1</v>
       </c>
       <c r="J276" s="9" t="s">
-        <v>712</v>
+        <v>1018</v>
       </c>
       <c r="L276" s="1">
         <v>1</v>
@@ -24495,7 +25443,7 @@
         <v>1</v>
       </c>
       <c r="J277" s="9" t="s">
-        <v>713</v>
+        <v>1057</v>
       </c>
       <c r="L277" s="1">
         <v>1</v>
@@ -24562,7 +25510,7 @@
         <v>1</v>
       </c>
       <c r="J278" s="9" t="s">
-        <v>714</v>
+        <v>1058</v>
       </c>
       <c r="L278" s="1">
         <v>1</v>
@@ -24629,7 +25577,7 @@
         <v>1</v>
       </c>
       <c r="J279" s="9" t="s">
-        <v>715</v>
+        <v>1021</v>
       </c>
       <c r="L279" s="1">
         <v>1</v>
@@ -24700,7 +25648,7 @@
         <v>1</v>
       </c>
       <c r="J280" s="9" t="s">
-        <v>716</v>
+        <v>1059</v>
       </c>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
@@ -25464,10 +26412,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CFC106-4249-4BC9-9967-425037A65B0D}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D276" sqref="D276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25510,160 +26458,3278 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>438</v>
+      </c>
       <c r="H2" s="6"/>
+      <c r="I2" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>439</v>
+      </c>
       <c r="H3" s="6"/>
+      <c r="I3" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>440</v>
+      </c>
       <c r="H4" s="6"/>
+      <c r="I4" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>441</v>
+      </c>
       <c r="H5" s="6"/>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>442</v>
+      </c>
       <c r="H6" s="6"/>
+      <c r="I6" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="H7" s="6"/>
+      <c r="I7" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="H8" s="6"/>
+      <c r="I8" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>445</v>
+      </c>
       <c r="H9" s="6"/>
+      <c r="I9" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>446</v>
+      </c>
       <c r="H10" s="6"/>
+      <c r="I10" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>447</v>
+      </c>
       <c r="H11" s="6"/>
+      <c r="I11" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>448</v>
+      </c>
       <c r="H12" s="6"/>
+      <c r="I12" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>449</v>
+      </c>
       <c r="H13" s="6"/>
+      <c r="I13" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>707</v>
+      </c>
       <c r="H14" s="6"/>
+      <c r="I14" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>450</v>
+      </c>
       <c r="H15" s="6"/>
+      <c r="I15" s="9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>451</v>
+      </c>
       <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>453</v>
+      </c>
       <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>455</v>
+      </c>
       <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>457</v>
+      </c>
       <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>458</v>
+      </c>
       <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>459</v>
+      </c>
       <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>460</v>
+      </c>
       <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>463</v>
+      </c>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>464</v>
+      </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>465</v>
+      </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>466</v>
+      </c>
       <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>468</v>
+      </c>
       <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>470</v>
+      </c>
       <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>471</v>
+      </c>
       <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>472</v>
+      </c>
       <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>473</v>
+      </c>
       <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>474</v>
+      </c>
       <c r="H39" s="6"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>475</v>
+      </c>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>476</v>
+      </c>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>477</v>
+      </c>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>478</v>
+      </c>
       <c r="H43" s="6"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>479</v>
+      </c>
       <c r="H44" s="6"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>480</v>
+      </c>
       <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>481</v>
+      </c>
       <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>708</v>
+      </c>
       <c r="H47" s="6"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>482</v>
+      </c>
       <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>483</v>
+      </c>
       <c r="H49" s="6"/>
-    </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>484</v>
+      </c>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>485</v>
+      </c>
       <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>486</v>
+      </c>
       <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>487</v>
+      </c>
       <c r="H53" s="6"/>
+      <c r="I53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I54" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="I55" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="I56" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="I57" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="I58" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="I59" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="I60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="I61" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="I62" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I63" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I64" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="I65" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="I66" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="I67" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="I68" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="I69" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="I70" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="I71" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="I72" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="I73" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I74" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I75" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="I76" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="I77" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I78" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="I79" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="I80" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="I81" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="I82" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="I83" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="I84" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="I85" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="I86" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="I87" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="I88" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="I89" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="I90" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="I91" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="I92" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="I93" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="I94" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="I95" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="I96" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="I97" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="I98" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="I99" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>712</v>
+      </c>
+      <c r="I100" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="I101" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="I102" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="I103" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="I104" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="I105" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="I106" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="I107" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="I108" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="I109" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="I110" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="I111" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="I112" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="I113" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="I114" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="I115" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="I116" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="I117" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="I118" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="I119" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="I120" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="I121" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="I122" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="I123" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="I124" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="I125" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="I126" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="I127" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="I128" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="I129" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I130" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I131" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I132" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I133" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="I134" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="I135" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="I136" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="I137" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="I138" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="I139" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="I140" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="I141" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="I142" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="I143" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="I144" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="I145" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="I146" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="I147" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="I148" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="I149" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="I150" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="I151" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="I152" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="I153" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="I154" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="I155" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="I156" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="I157" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="I158" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="I159" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="I160" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="I161" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="I162" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="I163" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="I164" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="I165" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="I166" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="I167" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="I168" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="I169" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="I170" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="I171" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="I172" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="I173" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="I174" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="I175" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="I176" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="I177" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="I178" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="I179" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="I180" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="I181" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="I182" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="I183" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="I184" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="I185" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="I186" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="I187" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="I188" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I189" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="I190" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="I191" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="I192" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="I193" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="I194" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I195" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="I196" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="I197" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="I198" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="I199" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="I200" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="I201" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="I202" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="I203" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="I204" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="I205" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>731</v>
+      </c>
+      <c r="I206" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="I207" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="I208" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="I209" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I210" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="I211" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="I212" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="I213" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="I214" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="I215" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="I216" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="I217" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="I218" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="I219" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="I220" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="I221" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="I222" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="I223" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="I224" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="I225" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="I226" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="I227" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="I228" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="I229" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="I230" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="I231" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="I232" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="I233" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="I234" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="I235" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="I236" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="I237" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="I238" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="I239" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="I240" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="I241" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="I242" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="I243" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="I244" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A245" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="I245" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A246" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="I246" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="I247" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="I248" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="I249" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="I250" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="I251" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="I252" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="I253" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="I254" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="I255" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="I256" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="I257" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="I258" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="I259" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="I260" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="I261" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="I262" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="I263" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="I264" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="I265" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="I266" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="I267" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="I268" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="I269" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="I270" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="I271" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="I272" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="I273" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="I274" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="I275" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="I276" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="I277" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="I278" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="I279" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="I280" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I281" s="9"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I282" s="9"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I283" s="9"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I284" s="9"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I285" s="9"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I286" s="9"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I287" s="9"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I288" s="9"/>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I289" s="9"/>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I290" s="9"/>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I291" s="9"/>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I292" s="9"/>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I293" s="9"/>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I294" s="9"/>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I295" s="9"/>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I296" s="9"/>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I297" s="9"/>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I298" s="9"/>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I299" s="9"/>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I300" s="9"/>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I301" s="9"/>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I302" s="9"/>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I303" s="9"/>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I304" s="9"/>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I305" s="9"/>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I306" s="9"/>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I307" s="9"/>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I308" s="9"/>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I309" s="9"/>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I310" s="9"/>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I311" s="9"/>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I312" s="9"/>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I313" s="9"/>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I314" s="9"/>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I315" s="9"/>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I316" s="9"/>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I317" s="9"/>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I318" s="9"/>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I319" s="9"/>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I320" s="9"/>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I321" s="9"/>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I322" s="9"/>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I323" s="9"/>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I324" s="9"/>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I325" s="9"/>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I326" s="9"/>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I327" s="9"/>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I328" s="9"/>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I329" s="9"/>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I330" s="9"/>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I331" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25729,7 +29795,7 @@
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="B2" s="1">
         <v>3</v>
@@ -25752,7 +29818,7 @@
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -25821,7 +29887,7 @@
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -25890,7 +29956,7 @@
     </row>
     <row r="9" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>720</v>
+        <v>683</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -25959,7 +30025,7 @@
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>91</v>
@@ -25967,7 +30033,7 @@
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>91</v>
@@ -25975,7 +30041,7 @@
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>91</v>
@@ -25983,7 +30049,7 @@
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>91</v>
@@ -25991,7 +30057,7 @@
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>91</v>
@@ -25999,7 +30065,7 @@
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>91</v>
@@ -26007,7 +30073,7 @@
     </row>
     <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>91</v>
@@ -26015,7 +30081,7 @@
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>91</v>
@@ -26023,7 +30089,7 @@
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>91</v>
@@ -26031,7 +30097,7 @@
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>91</v>
@@ -26039,7 +30105,7 @@
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>91</v>
@@ -26047,7 +30113,7 @@
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>91</v>
@@ -26055,7 +30121,7 @@
     </row>
     <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>91</v>
@@ -26063,7 +30129,7 @@
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>91</v>
@@ -26071,7 +30137,7 @@
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>91</v>
@@ -26079,7 +30145,7 @@
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>91</v>
@@ -26087,7 +30153,7 @@
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>91</v>
@@ -26095,7 +30161,7 @@
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>91</v>
@@ -26103,7 +30169,7 @@
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
@@ -26111,7 +30177,7 @@
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>91</v>
@@ -26119,7 +30185,7 @@
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>91</v>
@@ -26127,7 +30193,7 @@
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>91</v>
@@ -26135,7 +30201,7 @@
     </row>
     <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>91</v>
@@ -26167,10 +30233,10 @@
     <row r="1" spans="1:12" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>718</v>
+        <v>681</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>48</v>
@@ -26179,7 +30245,7 @@
         <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>719</v>
+        <v>682</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>50</v>
@@ -26188,7 +30254,7 @@
         <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>720</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -26655,73 +30721,73 @@
     <row r="1" spans="1:24" s="3" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
-        <v>721</v>
+        <v>684</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>722</v>
+        <v>685</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>723</v>
+        <v>686</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>725</v>
+        <v>688</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>738</v>
+        <v>701</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>739</v>
+        <v>702</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>741</v>
+        <v>704</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>742</v>
+        <v>705</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
